--- a/SubClassesWW2/PreWork.xlsx
+++ b/SubClassesWW2/PreWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PythonExercises\SubClassesWW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{746BC491-0480-414E-B380-EBD95F126070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B817736-6529-41C2-BA1F-DC9E03FE304B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27360" yWindow="1440" windowWidth="21600" windowHeight="11235" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-26775" yWindow="1710" windowWidth="21600" windowHeight="11235" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -404,7 +404,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -414,9 +414,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="6" fillId="4" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="6" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -838,7 +839,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1130,213 +1131,275 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="63.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10">
-        <v>45270</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8:F23">_xlfn._xlws.FILTER(B8:B38,ISNUMBER(FIND("submarine",B8:B38)))</f>
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8:C23">_xlfn._xlws.FILTER(B8:B38,ISNUMBER(FIND("submarine",B8:B38)))</f>
         <v>British U-class submarine</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="10" t="str">
+        <f>HYPERLINK("https://www.wikipedia.org/wiki/"&amp;C8)</f>
+        <v>https://www.wikipedia.org/wiki/British U-class submarine</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="str">
+      <c r="C9" t="str">
         <v>British R-class submarine</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="10" t="str">
+        <f t="shared" ref="D9:D23" si="0">HYPERLINK("https://www.wikipedia.org/wiki/"&amp;C9)</f>
+        <v>https://www.wikipedia.org/wiki/British R-class submarine</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="str">
+      <c r="C10" t="str">
         <v>British H-class submarine</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/British H-class submarine</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="str">
+      <c r="C11" t="str">
         <v>British T-class submarine</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/British T-class submarine</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="str">
+      <c r="C12" t="str">
         <v>Amphion-class submarine</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/Amphion-class submarine</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="str">
+      <c r="C13" t="str">
         <v>Odin-class submarine</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/Odin-class submarine</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="str">
+      <c r="C14" t="str">
         <v>British Porpoise-class submarine</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/British Porpoise-class submarine</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="str">
+      <c r="C15" t="str">
         <v>Oruç Reis-class submarine</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/Oruç Reis-class submarine</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="F16" t="str">
+      <c r="C16" t="str">
         <v>Parthian-class submarine</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/Parthian-class submarine</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="F17" t="str">
+      <c r="C17" t="str">
         <v>Grampus-class submarine</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/Grampus-class submarine</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="F18" t="str">
+      <c r="C18" t="str">
         <v>Rainbow-class submarine</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/Rainbow-class submarine</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" t="str">
+      <c r="C19" t="str">
         <v>River-class submarine</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/River-class submarine</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="str">
+      <c r="C20" t="str">
         <v>British L-class submarine</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/British L-class submarine</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" t="str">
+      <c r="C21" t="str">
         <v>British V-class submarine</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/British V-class submarine</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="F22" t="str">
+      <c r="C22" t="str">
         <v>British S-class submarine</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/British S-class submarine</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="F23" t="str">
+      <c r="C23" t="str">
         <v>XE-class submarine</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikipedia.org/wiki/XE-class submarine</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>45</v>
       </c>
@@ -1415,7 +1478,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>10-Dec-2023</v>
+        <v>11-Dec-2023</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1551,19 +1614,15 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -1571,11 +1630,10 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
@@ -1583,19 +1641,15 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
@@ -1603,11 +1657,10 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>4</v>
       </c>
     </row>
@@ -1615,19 +1668,15 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
@@ -1635,11 +1684,10 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27">
         <v>6</v>
       </c>
     </row>
@@ -1647,13 +1695,13 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28">
         <v>21</v>
       </c>
     </row>
@@ -1726,7 +1774,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>10-Dec-2023</v>
+        <v>11-Dec-2023</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/SubClassesWW2/PreWork.xlsx
+++ b/SubClassesWW2/PreWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PythonExercises\SubClassesWW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B817736-6529-41C2-BA1F-DC9E03FE304B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D7C2D-4336-4E5E-9EE4-E169FDB72314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26775" yWindow="1710" windowWidth="21600" windowHeight="11235" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -839,7 +839,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1131,10 +1131,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1144,7 @@
     <col min="4" max="4" width="63.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,13 +1152,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1178,8 +1178,12 @@
         <f>HYPERLINK("https://www.wikipedia.org/wiki/"&amp;C8)</f>
         <v>https://www.wikipedia.org/wiki/British U-class submarine</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f>"'"&amp;D8&amp;"',"</f>
+        <v>'https://www.wikipedia.org/wiki/British U-class submarine',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1190,8 +1194,12 @@
         <f t="shared" ref="D9:D23" si="0">HYPERLINK("https://www.wikipedia.org/wiki/"&amp;C9)</f>
         <v>https://www.wikipedia.org/wiki/British R-class submarine</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f t="shared" ref="E9:E23" si="1">"'"&amp;D9&amp;"',"</f>
+        <v>'https://www.wikipedia.org/wiki/British R-class submarine',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1202,8 +1210,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/British H-class submarine</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/British H-class submarine',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1214,8 +1226,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/British T-class submarine</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/British T-class submarine',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1226,8 +1242,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/Amphion-class submarine</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/Amphion-class submarine',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -1238,8 +1258,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/Odin-class submarine</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/Odin-class submarine',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1250,8 +1274,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/British Porpoise-class submarine</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/British Porpoise-class submarine',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -1262,8 +1290,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/Oruç Reis-class submarine</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/Oruç Reis-class submarine',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -1274,8 +1306,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/Parthian-class submarine</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/Parthian-class submarine',</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -1286,8 +1322,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/Grampus-class submarine</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/Grampus-class submarine',</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1298,8 +1338,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/Rainbow-class submarine</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/Rainbow-class submarine',</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -1310,8 +1354,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/River-class submarine</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/River-class submarine',</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1322,8 +1370,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/British L-class submarine</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/British L-class submarine',</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>34</v>
       </c>
@@ -1334,8 +1386,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/British V-class submarine</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/British V-class submarine',</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>35</v>
       </c>
@@ -1346,8 +1402,12 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/British S-class submarine</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/British S-class submarine',</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -1358,48 +1418,52 @@
         <f t="shared" si="0"/>
         <v>https://www.wikipedia.org/wiki/XE-class submarine</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>'https://www.wikipedia.org/wiki/XE-class submarine',</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>45</v>
       </c>
@@ -1478,7 +1542,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>11-Dec-2023</v>
+        <v>13-Dec-2023</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1774,7 +1838,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>11-Dec-2023</v>
+        <v>13-Dec-2023</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/SubClassesWW2/PreWork.xlsx
+++ b/SubClassesWW2/PreWork.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PythonExercises\SubClassesWW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D7C2D-4336-4E5E-9EE4-E169FDB72314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1741EEB2-4F3E-47A8-8633-78510E1C77A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>FROM:</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Black Swan-class sloop</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/British_S-class_submarine_(1931)</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1134,7 +1137,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1398,13 +1401,12 @@
       <c r="C22" t="str">
         <v>British S-class submarine</v>
       </c>
-      <c r="D22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.wikipedia.org/wiki/British S-class submarine</v>
+      <c r="D22" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v>'https://www.wikipedia.org/wiki/British S-class submarine',</v>
+        <v>'https://en.wikipedia.org/wiki/British_S-class_submarine_(1931)',</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1499,8 +1501,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{091396DA-F498-458F-92C5-0B1B36DADED2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1542,7 +1547,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>13-Dec-2023</v>
+        <v>14-Dec-2023</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1838,7 +1843,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>13-Dec-2023</v>
+        <v>14-Dec-2023</v>
       </c>
       <c r="C3" s="2"/>
     </row>
